--- a/Data/TimeCardPremiumN.xlsx
+++ b/Data/TimeCardPremiumN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFFFBDF-F0BC-499C-A6AC-FED3E9E3C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCA4CE6-A175-41B9-8BB6-75413CFECA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>EmpID</t>
   </si>
@@ -32,6 +32,9 @@
     <t>ToDate</t>
   </si>
   <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>TestResult</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>SK-OT TOIL Monthly Payout</t>
   </si>
   <si>
+    <t>12/02/2024</t>
+  </si>
+  <si>
     <t>12/31/2024</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>SK-Saturday Worked Premium</t>
   </si>
   <si>
+    <t>Validation FailedNo valid row found</t>
+  </si>
+  <si>
     <t>95:00</t>
   </si>
   <si>
@@ -74,13 +83,7 @@
     <t>SK-Night Premium</t>
   </si>
   <si>
-    <t>12/02/2024</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Failed-No valid row found</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -97,6 +100,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -119,11 +127,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -156,24 +159,24 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -492,154 +495,166 @@
     <col min="7" max="7" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>10649012</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>10649012</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>10649012</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>10649012</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>10649012</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>10649012</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>0.3125</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TimeCardPremiumN.xlsx
+++ b/Data/TimeCardPremiumN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A86AEC-3037-4B6D-915F-A0D27D05314D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B695E9-8B12-4D9B-92FC-4353F9406FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t>ToDate</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
     <t>TestResult</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>12/02/2024</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -510,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -521,22 +521,22 @@
         <v>10649012</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -544,22 +544,22 @@
         <v>10649012</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -568,19 +568,19 @@
         <v>10649012</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -588,19 +588,19 @@
         <v>10649012</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,19 +608,19 @@
         <v>10649012</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,16 +631,16 @@
         <v>0.3125</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
